--- a/example_data/EMA/label_corrected/aclasta-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/aclasta-epar-product-information_en.xlsx
@@ -1458,7 +1458,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric || warnings</t>
+          <t>populations - geriatric || renal || warnings</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
